--- a/tests/09_Data_Edit_Open_Course.xlsx
+++ b/tests/09_Data_Edit_Open_Course.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBA361F-A8DE-4DC4-95A7-05EFCE431BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784F0505-1B69-48C7-97AB-AB4C0D64024F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,25 @@
     <sheet name="ตารางที่ TC09-EC" sheetId="1" r:id="rId1"/>
     <sheet name="ตารางที่ TC09-TC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8081" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8093" uniqueCount="338">
   <si>
     <t>TCID</t>
   </si>
@@ -1083,6 +1096,30 @@
   <si>
     <t xml:space="preserve">กรุณากรอก inkMooc </t>
   </si>
+  <si>
+    <t xml:space="preserve">Result P/F </t>
+  </si>
+  <si>
+    <t>คิดเป็น %</t>
+  </si>
+  <si>
+    <t>Pass :</t>
+  </si>
+  <si>
+    <t>Fail :</t>
+  </si>
+  <si>
+    <t>Sum :</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Revise Manual Testing</t>
+  </si>
 </sst>
 </file>
 
@@ -1131,7 +1168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1171,6 +1208,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,7 +1385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1476,7 +1519,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1485,13 +1528,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1767,10 +1851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X97"/>
+  <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="O86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X98" sqref="X98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1998,7 +2082,9 @@
         <v>45</v>
       </c>
       <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
+      <c r="V3" s="3" t="s">
+        <v>335</v>
+      </c>
       <c r="W3" s="3" t="s">
         <v>42</v>
       </c>
@@ -2066,7 +2152,9 @@
         <v>47</v>
       </c>
       <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
+      <c r="V4" s="3" t="s">
+        <v>336</v>
+      </c>
       <c r="W4" s="3" t="s">
         <v>42</v>
       </c>
@@ -7600,15 +7688,54 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T89" s="12"/>
+      <c r="V89" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="W89" s="53"/>
+      <c r="X89" s="54" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T90" s="12"/>
+      <c r="V90" s="52" t="s">
+        <v>332</v>
+      </c>
+      <c r="W90" s="55">
+        <f>COUNTIF(V2:V86,"Pass")</f>
+        <v>1</v>
+      </c>
+      <c r="X90" s="55">
+        <f>W90*100/W92</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T91" s="12"/>
+      <c r="V91" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="W91" s="55">
+        <f>COUNTIF(V2:V86,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="X91" s="55">
+        <f>W91*100/W92</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T92" s="12"/>
+      <c r="V92" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="W92" s="55">
+        <f>SUM(W90:W91)</f>
+        <v>2</v>
+      </c>
+      <c r="X92" s="55">
+        <v>100</v>
+      </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T93" s="12"/>
@@ -7618,14 +7745,67 @@
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T95" s="12"/>
+      <c r="V95" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="W95" s="53"/>
+      <c r="X95" s="54" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T96" s="12"/>
-    </row>
-    <row r="97" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="V96" s="52" t="s">
+        <v>332</v>
+      </c>
+      <c r="W96" s="55">
+        <f>COUNTIF(X2:X86,"Pass")</f>
+        <v>0</v>
+      </c>
+      <c r="X96" s="55" t="e">
+        <f>W96*100/W98</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="97" spans="20:24" x14ac:dyDescent="0.25">
       <c r="T97" s="12"/>
+      <c r="V97" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="W97" s="55">
+        <f>COUNTIF(X2:X86,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="X97" s="55" t="e">
+        <f>W97*100/W98</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="98" spans="20:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V98" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="W98" s="55">
+        <f>SUM(W96:W97)</f>
+        <v>0</v>
+      </c>
+      <c r="X98" s="55">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="V89:W89"/>
+    <mergeCell ref="V95:W95"/>
+  </mergeCells>
+  <conditionalFormatting sqref="V2:V86">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7682,7 +7862,7 @@
         <v>258</v>
       </c>
       <c r="E2" s="22"/>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="51" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8008,7 +8188,7 @@
         <v>258</v>
       </c>
       <c r="E26" s="22"/>
-      <c r="F26" s="48" t="s">
+      <c r="F26" s="51" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8334,7 +8514,7 @@
         <v>258</v>
       </c>
       <c r="E50" s="22"/>
-      <c r="F50" s="48" t="s">
+      <c r="F50" s="51" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8660,7 +8840,7 @@
         <v>258</v>
       </c>
       <c r="E74" s="22"/>
-      <c r="F74" s="48" t="s">
+      <c r="F74" s="51" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8986,7 +9166,7 @@
         <v>258</v>
       </c>
       <c r="E98" s="22"/>
-      <c r="F98" s="51" t="s">
+      <c r="F98" s="48" t="s">
         <v>52</v>
       </c>
     </row>
@@ -9312,7 +9492,7 @@
         <v>258</v>
       </c>
       <c r="E122" s="22"/>
-      <c r="F122" s="51" t="s">
+      <c r="F122" s="48" t="s">
         <v>305</v>
       </c>
     </row>
@@ -9636,7 +9816,7 @@
         <v>258</v>
       </c>
       <c r="E146" s="22"/>
-      <c r="F146" s="48" t="s">
+      <c r="F146" s="51" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9962,7 +10142,7 @@
         <v>258</v>
       </c>
       <c r="E170" s="22"/>
-      <c r="F170" s="51" t="s">
+      <c r="F170" s="48" t="s">
         <v>306</v>
       </c>
     </row>
@@ -10288,7 +10468,7 @@
         <v>258</v>
       </c>
       <c r="E194" s="22"/>
-      <c r="F194" s="51" t="s">
+      <c r="F194" s="48" t="s">
         <v>306</v>
       </c>
     </row>
@@ -10614,7 +10794,7 @@
         <v>258</v>
       </c>
       <c r="E218" s="22"/>
-      <c r="F218" s="51" t="s">
+      <c r="F218" s="48" t="s">
         <v>307</v>
       </c>
     </row>
@@ -10938,7 +11118,7 @@
         <v>258</v>
       </c>
       <c r="E242" s="22"/>
-      <c r="F242" s="51" t="s">
+      <c r="F242" s="48" t="s">
         <v>308</v>
       </c>
     </row>
@@ -11264,7 +11444,7 @@
         <v>258</v>
       </c>
       <c r="E266" s="22"/>
-      <c r="F266" s="51" t="s">
+      <c r="F266" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -11590,7 +11770,7 @@
         <v>258</v>
       </c>
       <c r="E290" s="22"/>
-      <c r="F290" s="51" t="s">
+      <c r="F290" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -11916,7 +12096,7 @@
         <v>258</v>
       </c>
       <c r="E314" s="22"/>
-      <c r="F314" s="51" t="s">
+      <c r="F314" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -12242,7 +12422,7 @@
         <v>258</v>
       </c>
       <c r="E338" s="22"/>
-      <c r="F338" s="51" t="s">
+      <c r="F338" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -12568,7 +12748,7 @@
         <v>258</v>
       </c>
       <c r="E362" s="22"/>
-      <c r="F362" s="51" t="s">
+      <c r="F362" s="48" t="s">
         <v>308</v>
       </c>
     </row>
@@ -12894,7 +13074,7 @@
         <v>258</v>
       </c>
       <c r="E386" s="22"/>
-      <c r="F386" s="51" t="s">
+      <c r="F386" s="48" t="s">
         <v>311</v>
       </c>
     </row>
@@ -13218,7 +13398,7 @@
         <v>258</v>
       </c>
       <c r="E410" s="22"/>
-      <c r="F410" s="51" t="s">
+      <c r="F410" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -13544,7 +13724,7 @@
         <v>258</v>
       </c>
       <c r="E434" s="22"/>
-      <c r="F434" s="51" t="s">
+      <c r="F434" s="48" t="s">
         <v>87</v>
       </c>
     </row>
@@ -13870,7 +14050,7 @@
         <v>258</v>
       </c>
       <c r="E458" s="22"/>
-      <c r="F458" s="51" t="s">
+      <c r="F458" s="48" t="s">
         <v>87</v>
       </c>
     </row>
@@ -14196,7 +14376,7 @@
         <v>258</v>
       </c>
       <c r="E482" s="22"/>
-      <c r="F482" s="51" t="s">
+      <c r="F482" s="48" t="s">
         <v>313</v>
       </c>
     </row>
@@ -14520,7 +14700,7 @@
         <v>258</v>
       </c>
       <c r="E506" s="22"/>
-      <c r="F506" s="51" t="s">
+      <c r="F506" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -14846,7 +15026,7 @@
         <v>258</v>
       </c>
       <c r="E530" s="22"/>
-      <c r="F530" s="51" t="s">
+      <c r="F530" s="48" t="s">
         <v>94</v>
       </c>
     </row>
@@ -15172,7 +15352,7 @@
         <v>258</v>
       </c>
       <c r="E554" s="22"/>
-      <c r="F554" s="51" t="s">
+      <c r="F554" s="48" t="s">
         <v>97</v>
       </c>
     </row>
@@ -15498,7 +15678,7 @@
         <v>258</v>
       </c>
       <c r="E578" s="22"/>
-      <c r="F578" s="51" t="s">
+      <c r="F578" s="48" t="s">
         <v>314</v>
       </c>
     </row>
@@ -15822,7 +16002,7 @@
         <v>258</v>
       </c>
       <c r="E602" s="22"/>
-      <c r="F602" s="51" t="s">
+      <c r="F602" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -16148,7 +16328,7 @@
         <v>258</v>
       </c>
       <c r="E626" s="22"/>
-      <c r="F626" s="51" t="s">
+      <c r="F626" s="48" t="s">
         <v>102</v>
       </c>
     </row>
@@ -16474,7 +16654,7 @@
         <v>258</v>
       </c>
       <c r="E650" s="22"/>
-      <c r="F650" s="51" t="s">
+      <c r="F650" s="48" t="s">
         <v>105</v>
       </c>
     </row>
@@ -16800,7 +16980,7 @@
         <v>258</v>
       </c>
       <c r="E674" s="22"/>
-      <c r="F674" s="51" t="s">
+      <c r="F674" s="48" t="s">
         <v>315</v>
       </c>
     </row>
@@ -17124,7 +17304,7 @@
         <v>258</v>
       </c>
       <c r="E698" s="22"/>
-      <c r="F698" s="51" t="s">
+      <c r="F698" s="48" t="s">
         <v>108</v>
       </c>
     </row>
@@ -17446,7 +17626,7 @@
         <v>258</v>
       </c>
       <c r="E722" s="22"/>
-      <c r="F722" s="51" t="s">
+      <c r="F722" s="48" t="s">
         <v>108</v>
       </c>
     </row>
@@ -17768,7 +17948,7 @@
         <v>258</v>
       </c>
       <c r="E746" s="22"/>
-      <c r="F746" s="51" t="s">
+      <c r="F746" s="48" t="s">
         <v>108</v>
       </c>
     </row>
@@ -18090,7 +18270,7 @@
         <v>258</v>
       </c>
       <c r="E770" s="22"/>
-      <c r="F770" s="51" t="s">
+      <c r="F770" s="48" t="s">
         <v>108</v>
       </c>
     </row>
@@ -18412,7 +18592,7 @@
         <v>258</v>
       </c>
       <c r="E794" s="22"/>
-      <c r="F794" s="51" t="s">
+      <c r="F794" s="48" t="s">
         <v>108</v>
       </c>
     </row>
@@ -18734,7 +18914,7 @@
         <v>258</v>
       </c>
       <c r="E818" s="22"/>
-      <c r="F818" s="51" t="s">
+      <c r="F818" s="48" t="s">
         <v>108</v>
       </c>
     </row>
@@ -19056,7 +19236,7 @@
         <v>258</v>
       </c>
       <c r="E842" s="22"/>
-      <c r="F842" s="51" t="s">
+      <c r="F842" s="48" t="s">
         <v>108</v>
       </c>
     </row>
@@ -19378,7 +19558,7 @@
         <v>258</v>
       </c>
       <c r="E866" s="22"/>
-      <c r="F866" s="51" t="s">
+      <c r="F866" s="48" t="s">
         <v>108</v>
       </c>
     </row>
@@ -19700,7 +19880,7 @@
         <v>258</v>
       </c>
       <c r="E890" s="22"/>
-      <c r="F890" s="51" t="s">
+      <c r="F890" s="48" t="s">
         <v>317</v>
       </c>
     </row>
@@ -20024,7 +20204,7 @@
         <v>258</v>
       </c>
       <c r="E914" s="22"/>
-      <c r="F914" s="51" t="s">
+      <c r="F914" s="48" t="s">
         <v>317</v>
       </c>
     </row>
@@ -20348,7 +20528,7 @@
         <v>258</v>
       </c>
       <c r="E938" s="22"/>
-      <c r="F938" s="51" t="s">
+      <c r="F938" s="48" t="s">
         <v>317</v>
       </c>
     </row>
@@ -20672,7 +20852,7 @@
         <v>258</v>
       </c>
       <c r="E962" s="22"/>
-      <c r="F962" s="51" t="s">
+      <c r="F962" s="48" t="s">
         <v>317</v>
       </c>
     </row>
@@ -20996,7 +21176,7 @@
         <v>258</v>
       </c>
       <c r="E986" s="22"/>
-      <c r="F986" s="51" t="s">
+      <c r="F986" s="48" t="s">
         <v>317</v>
       </c>
     </row>
@@ -21320,7 +21500,7 @@
         <v>258</v>
       </c>
       <c r="E1010" s="22"/>
-      <c r="F1010" s="51" t="s">
+      <c r="F1010" s="48" t="s">
         <v>317</v>
       </c>
     </row>
@@ -21644,7 +21824,7 @@
         <v>258</v>
       </c>
       <c r="E1034" s="22"/>
-      <c r="F1034" s="51" t="s">
+      <c r="F1034" s="48" t="s">
         <v>317</v>
       </c>
     </row>
@@ -21968,7 +22148,7 @@
         <v>258</v>
       </c>
       <c r="E1058" s="22"/>
-      <c r="F1058" s="51" t="s">
+      <c r="F1058" s="48" t="s">
         <v>144</v>
       </c>
     </row>
@@ -22292,7 +22472,7 @@
         <v>258</v>
       </c>
       <c r="E1082" s="22"/>
-      <c r="F1082" s="51" t="s">
+      <c r="F1082" s="48" t="s">
         <v>144</v>
       </c>
     </row>
@@ -22616,7 +22796,7 @@
         <v>258</v>
       </c>
       <c r="E1106" s="22"/>
-      <c r="F1106" s="51" t="s">
+      <c r="F1106" s="48" t="s">
         <v>144</v>
       </c>
     </row>
@@ -22940,7 +23120,7 @@
         <v>258</v>
       </c>
       <c r="E1130" s="22"/>
-      <c r="F1130" s="51" t="s">
+      <c r="F1130" s="48" t="s">
         <v>144</v>
       </c>
     </row>
@@ -23264,7 +23444,7 @@
         <v>258</v>
       </c>
       <c r="E1154" s="22"/>
-      <c r="F1154" s="51" t="s">
+      <c r="F1154" s="48" t="s">
         <v>144</v>
       </c>
     </row>
@@ -23588,7 +23768,7 @@
         <v>258</v>
       </c>
       <c r="E1178" s="22"/>
-      <c r="F1178" s="51" t="s">
+      <c r="F1178" s="48" t="s">
         <v>144</v>
       </c>
     </row>
@@ -23912,7 +24092,7 @@
         <v>258</v>
       </c>
       <c r="E1202" s="22"/>
-      <c r="F1202" s="51" t="s">
+      <c r="F1202" s="48" t="s">
         <v>144</v>
       </c>
     </row>
@@ -24236,7 +24416,7 @@
         <v>258</v>
       </c>
       <c r="E1226" s="22"/>
-      <c r="F1226" s="51" t="s">
+      <c r="F1226" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -24562,7 +24742,7 @@
         <v>258</v>
       </c>
       <c r="E1250" s="22"/>
-      <c r="F1250" s="51" t="s">
+      <c r="F1250" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -24888,7 +25068,7 @@
         <v>258</v>
       </c>
       <c r="E1274" s="22"/>
-      <c r="F1274" s="51" t="s">
+      <c r="F1274" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -25214,7 +25394,7 @@
         <v>258</v>
       </c>
       <c r="E1298" s="22"/>
-      <c r="F1298" s="51" t="s">
+      <c r="F1298" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -25540,7 +25720,7 @@
         <v>258</v>
       </c>
       <c r="E1322" s="22"/>
-      <c r="F1322" s="51" t="s">
+      <c r="F1322" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -25866,7 +26046,7 @@
         <v>258</v>
       </c>
       <c r="E1346" s="22"/>
-      <c r="F1346" s="51" t="s">
+      <c r="F1346" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -26192,7 +26372,7 @@
         <v>258</v>
       </c>
       <c r="E1370" s="22"/>
-      <c r="F1370" s="51" t="s">
+      <c r="F1370" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -26518,7 +26698,7 @@
         <v>258</v>
       </c>
       <c r="E1394" s="22"/>
-      <c r="F1394" s="51" t="s">
+      <c r="F1394" s="48" t="s">
         <v>174</v>
       </c>
     </row>
@@ -26844,7 +27024,7 @@
         <v>258</v>
       </c>
       <c r="E1418" s="22"/>
-      <c r="F1418" s="51" t="s">
+      <c r="F1418" s="48" t="s">
         <v>174</v>
       </c>
     </row>
@@ -27170,7 +27350,7 @@
         <v>258</v>
       </c>
       <c r="E1442" s="22"/>
-      <c r="F1442" s="51" t="s">
+      <c r="F1442" s="48" t="s">
         <v>174</v>
       </c>
     </row>
@@ -27496,7 +27676,7 @@
         <v>258</v>
       </c>
       <c r="E1466" s="22"/>
-      <c r="F1466" s="51" t="s">
+      <c r="F1466" s="48" t="s">
         <v>174</v>
       </c>
     </row>
@@ -27822,7 +28002,7 @@
         <v>258</v>
       </c>
       <c r="E1490" s="22"/>
-      <c r="F1490" s="51" t="s">
+      <c r="F1490" s="48" t="s">
         <v>174</v>
       </c>
     </row>
@@ -28148,7 +28328,7 @@
         <v>258</v>
       </c>
       <c r="E1514" s="22"/>
-      <c r="F1514" s="51" t="s">
+      <c r="F1514" s="48" t="s">
         <v>174</v>
       </c>
     </row>
@@ -28474,7 +28654,7 @@
         <v>258</v>
       </c>
       <c r="E1538" s="22"/>
-      <c r="F1538" s="51" t="s">
+      <c r="F1538" s="48" t="s">
         <v>174</v>
       </c>
     </row>
@@ -28800,7 +28980,7 @@
         <v>258</v>
       </c>
       <c r="E1562" s="22"/>
-      <c r="F1562" s="51" t="s">
+      <c r="F1562" s="48" t="s">
         <v>174</v>
       </c>
     </row>
@@ -29126,7 +29306,7 @@
         <v>258</v>
       </c>
       <c r="E1586" s="22"/>
-      <c r="F1586" s="51" t="s">
+      <c r="F1586" s="48" t="s">
         <v>174</v>
       </c>
     </row>
@@ -29452,7 +29632,7 @@
         <v>258</v>
       </c>
       <c r="E1610" s="22"/>
-      <c r="F1610" s="51" t="s">
+      <c r="F1610" s="48" t="s">
         <v>174</v>
       </c>
     </row>
@@ -29778,7 +29958,7 @@
         <v>258</v>
       </c>
       <c r="E1634" s="22"/>
-      <c r="F1634" s="51" t="s">
+      <c r="F1634" s="48" t="s">
         <v>174</v>
       </c>
     </row>
@@ -30104,7 +30284,7 @@
         <v>258</v>
       </c>
       <c r="E1658" s="22"/>
-      <c r="F1658" s="51" t="s">
+      <c r="F1658" s="48" t="s">
         <v>174</v>
       </c>
     </row>
@@ -30430,7 +30610,7 @@
         <v>258</v>
       </c>
       <c r="E1682" s="22"/>
-      <c r="F1682" s="51" t="s">
+      <c r="F1682" s="48" t="s">
         <v>174</v>
       </c>
     </row>
@@ -30756,7 +30936,7 @@
         <v>258</v>
       </c>
       <c r="E1706" s="22"/>
-      <c r="F1706" s="51" t="s">
+      <c r="F1706" s="48" t="s">
         <v>174</v>
       </c>
     </row>
@@ -31082,7 +31262,7 @@
         <v>258</v>
       </c>
       <c r="E1730" s="22"/>
-      <c r="F1730" s="51" t="s">
+      <c r="F1730" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -31408,7 +31588,7 @@
         <v>258</v>
       </c>
       <c r="E1754" s="22"/>
-      <c r="F1754" s="51" t="s">
+      <c r="F1754" s="48" t="s">
         <v>205</v>
       </c>
     </row>
@@ -31734,7 +31914,7 @@
         <v>258</v>
       </c>
       <c r="E1778" s="22"/>
-      <c r="F1778" s="51" t="s">
+      <c r="F1778" s="48" t="s">
         <v>205</v>
       </c>
     </row>
@@ -32060,7 +32240,7 @@
         <v>258</v>
       </c>
       <c r="E1802" s="22"/>
-      <c r="F1802" s="51" t="s">
+      <c r="F1802" s="48" t="s">
         <v>318</v>
       </c>
     </row>
@@ -32384,7 +32564,7 @@
         <v>258</v>
       </c>
       <c r="E1826" s="22"/>
-      <c r="F1826" s="51" t="s">
+      <c r="F1826" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -32710,7 +32890,7 @@
         <v>258</v>
       </c>
       <c r="E1850" s="22"/>
-      <c r="F1850" s="51" t="s">
+      <c r="F1850" s="48" t="s">
         <v>212</v>
       </c>
     </row>
@@ -33036,7 +33216,7 @@
         <v>258</v>
       </c>
       <c r="E1874" s="22"/>
-      <c r="F1874" s="51" t="s">
+      <c r="F1874" s="48" t="s">
         <v>212</v>
       </c>
     </row>
@@ -33362,7 +33542,7 @@
         <v>258</v>
       </c>
       <c r="E1898" s="22"/>
-      <c r="F1898" s="51" t="s">
+      <c r="F1898" s="48" t="s">
         <v>319</v>
       </c>
     </row>
@@ -33686,7 +33866,7 @@
         <v>258</v>
       </c>
       <c r="E1922" s="22"/>
-      <c r="F1922" s="51" t="s">
+      <c r="F1922" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -34012,7 +34192,7 @@
         <v>258</v>
       </c>
       <c r="E1946" s="22"/>
-      <c r="F1946" s="51" t="s">
+      <c r="F1946" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -34338,7 +34518,7 @@
         <v>258</v>
       </c>
       <c r="E1970" s="22"/>
-      <c r="F1970" s="51" t="s">
+      <c r="F1970" s="48" t="s">
         <v>320</v>
       </c>
     </row>
@@ -34662,7 +34842,7 @@
         <v>258</v>
       </c>
       <c r="E1994" s="22"/>
-      <c r="F1994" s="51" t="s">
+      <c r="F1994" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -34988,7 +35168,7 @@
         <v>258</v>
       </c>
       <c r="E2018" s="22"/>
-      <c r="F2018" s="51" t="s">
+      <c r="F2018" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -35314,7 +35494,7 @@
         <v>258</v>
       </c>
       <c r="E2042" s="22"/>
-      <c r="F2042" s="51" t="s">
+      <c r="F2042" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -35640,7 +35820,7 @@
         <v>258</v>
       </c>
       <c r="E2066" s="22"/>
-      <c r="F2066" s="51" t="s">
+      <c r="F2066" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -35966,7 +36146,7 @@
         <v>258</v>
       </c>
       <c r="E2090" s="22"/>
-      <c r="F2090" s="51" t="s">
+      <c r="F2090" s="48" t="s">
         <v>233</v>
       </c>
     </row>
@@ -36292,7 +36472,7 @@
         <v>258</v>
       </c>
       <c r="E2114" s="22"/>
-      <c r="F2114" s="51" t="s">
+      <c r="F2114" s="48" t="s">
         <v>233</v>
       </c>
     </row>
@@ -36618,7 +36798,7 @@
         <v>258</v>
       </c>
       <c r="E2138" s="22"/>
-      <c r="F2138" s="51" t="s">
+      <c r="F2138" s="48" t="s">
         <v>324</v>
       </c>
     </row>
@@ -36942,7 +37122,7 @@
         <v>258</v>
       </c>
       <c r="E2162" s="22"/>
-      <c r="F2162" s="51" t="s">
+      <c r="F2162" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -37268,7 +37448,7 @@
         <v>258</v>
       </c>
       <c r="E2186" s="22"/>
-      <c r="F2186" s="51" t="s">
+      <c r="F2186" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -37594,7 +37774,7 @@
         <v>258</v>
       </c>
       <c r="E2210" s="22"/>
-      <c r="F2210" s="51" t="s">
+      <c r="F2210" s="48" t="s">
         <v>40</v>
       </c>
     </row>
@@ -37920,7 +38100,7 @@
         <v>258</v>
       </c>
       <c r="E2234" s="22"/>
-      <c r="F2234" s="51" t="s">
+      <c r="F2234" s="48" t="s">
         <v>327</v>
       </c>
     </row>
@@ -38246,7 +38426,7 @@
         <v>258</v>
       </c>
       <c r="E2258" s="22"/>
-      <c r="F2258" s="51" t="s">
+      <c r="F2258" s="48" t="s">
         <v>327</v>
       </c>
     </row>
@@ -38572,7 +38752,7 @@
         <v>258</v>
       </c>
       <c r="E2282" s="22"/>
-      <c r="F2282" s="51" t="s">
+      <c r="F2282" s="48" t="s">
         <v>329</v>
       </c>
     </row>
@@ -38884,102 +39064,102 @@
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="F2:F25"/>
+    <mergeCell ref="F26:F49"/>
+    <mergeCell ref="F50:F73"/>
+    <mergeCell ref="F74:F97"/>
+    <mergeCell ref="F98:F121"/>
+    <mergeCell ref="F122:F145"/>
+    <mergeCell ref="F146:F169"/>
+    <mergeCell ref="F170:F193"/>
+    <mergeCell ref="F194:F217"/>
+    <mergeCell ref="F218:F241"/>
+    <mergeCell ref="F242:F265"/>
+    <mergeCell ref="F266:F289"/>
+    <mergeCell ref="F290:F313"/>
+    <mergeCell ref="F314:F337"/>
+    <mergeCell ref="F338:F361"/>
+    <mergeCell ref="F362:F385"/>
+    <mergeCell ref="F386:F409"/>
+    <mergeCell ref="F410:F433"/>
+    <mergeCell ref="F434:F457"/>
+    <mergeCell ref="F458:F481"/>
+    <mergeCell ref="F482:F505"/>
+    <mergeCell ref="F506:F529"/>
+    <mergeCell ref="F530:F553"/>
+    <mergeCell ref="F554:F577"/>
+    <mergeCell ref="F578:F601"/>
+    <mergeCell ref="F602:F625"/>
+    <mergeCell ref="F626:F649"/>
+    <mergeCell ref="F650:F673"/>
+    <mergeCell ref="F674:F697"/>
+    <mergeCell ref="F698:F721"/>
+    <mergeCell ref="F722:F745"/>
+    <mergeCell ref="F746:F769"/>
+    <mergeCell ref="F770:F793"/>
+    <mergeCell ref="F794:F817"/>
+    <mergeCell ref="F818:F841"/>
+    <mergeCell ref="F842:F865"/>
+    <mergeCell ref="F866:F889"/>
+    <mergeCell ref="F890:F913"/>
+    <mergeCell ref="F914:F937"/>
+    <mergeCell ref="F938:F961"/>
+    <mergeCell ref="F962:F985"/>
+    <mergeCell ref="F986:F1009"/>
+    <mergeCell ref="F1010:F1033"/>
+    <mergeCell ref="F1034:F1057"/>
+    <mergeCell ref="F1058:F1081"/>
+    <mergeCell ref="F1082:F1105"/>
+    <mergeCell ref="F1106:F1129"/>
+    <mergeCell ref="F1130:F1153"/>
+    <mergeCell ref="F1154:F1177"/>
+    <mergeCell ref="F1178:F1201"/>
+    <mergeCell ref="F1202:F1225"/>
+    <mergeCell ref="F1226:F1249"/>
+    <mergeCell ref="F1250:F1273"/>
+    <mergeCell ref="F1274:F1297"/>
+    <mergeCell ref="F1298:F1321"/>
+    <mergeCell ref="F1322:F1345"/>
+    <mergeCell ref="F1346:F1369"/>
+    <mergeCell ref="F1370:F1393"/>
+    <mergeCell ref="F1394:F1417"/>
+    <mergeCell ref="F1418:F1441"/>
+    <mergeCell ref="F1442:F1465"/>
+    <mergeCell ref="F1466:F1489"/>
+    <mergeCell ref="F1490:F1513"/>
+    <mergeCell ref="F1514:F1537"/>
+    <mergeCell ref="F1538:F1561"/>
+    <mergeCell ref="F1562:F1585"/>
+    <mergeCell ref="F1586:F1609"/>
+    <mergeCell ref="F1610:F1633"/>
+    <mergeCell ref="F1634:F1657"/>
+    <mergeCell ref="F1658:F1681"/>
+    <mergeCell ref="F1682:F1705"/>
+    <mergeCell ref="F1706:F1729"/>
+    <mergeCell ref="F1730:F1753"/>
+    <mergeCell ref="F1754:F1777"/>
+    <mergeCell ref="F1778:F1801"/>
+    <mergeCell ref="F1802:F1825"/>
+    <mergeCell ref="F1826:F1849"/>
+    <mergeCell ref="F1850:F1873"/>
+    <mergeCell ref="F1874:F1897"/>
+    <mergeCell ref="F1898:F1921"/>
+    <mergeCell ref="F1922:F1945"/>
+    <mergeCell ref="F1946:F1969"/>
+    <mergeCell ref="F1970:F1993"/>
+    <mergeCell ref="F1994:F2017"/>
+    <mergeCell ref="F2018:F2041"/>
+    <mergeCell ref="F2042:F2065"/>
+    <mergeCell ref="F2066:F2089"/>
+    <mergeCell ref="F2090:F2113"/>
+    <mergeCell ref="F2114:F2137"/>
+    <mergeCell ref="F2138:F2161"/>
     <mergeCell ref="F2282:F2305"/>
     <mergeCell ref="F2162:F2185"/>
     <mergeCell ref="F2186:F2209"/>
     <mergeCell ref="F2210:F2233"/>
     <mergeCell ref="F2234:F2257"/>
     <mergeCell ref="F2258:F2281"/>
-    <mergeCell ref="F2042:F2065"/>
-    <mergeCell ref="F2066:F2089"/>
-    <mergeCell ref="F2090:F2113"/>
-    <mergeCell ref="F2114:F2137"/>
-    <mergeCell ref="F2138:F2161"/>
-    <mergeCell ref="F1922:F1945"/>
-    <mergeCell ref="F1946:F1969"/>
-    <mergeCell ref="F1970:F1993"/>
-    <mergeCell ref="F1994:F2017"/>
-    <mergeCell ref="F2018:F2041"/>
-    <mergeCell ref="F1802:F1825"/>
-    <mergeCell ref="F1826:F1849"/>
-    <mergeCell ref="F1850:F1873"/>
-    <mergeCell ref="F1874:F1897"/>
-    <mergeCell ref="F1898:F1921"/>
-    <mergeCell ref="F1682:F1705"/>
-    <mergeCell ref="F1706:F1729"/>
-    <mergeCell ref="F1730:F1753"/>
-    <mergeCell ref="F1754:F1777"/>
-    <mergeCell ref="F1778:F1801"/>
-    <mergeCell ref="F1562:F1585"/>
-    <mergeCell ref="F1586:F1609"/>
-    <mergeCell ref="F1610:F1633"/>
-    <mergeCell ref="F1634:F1657"/>
-    <mergeCell ref="F1658:F1681"/>
-    <mergeCell ref="F1442:F1465"/>
-    <mergeCell ref="F1466:F1489"/>
-    <mergeCell ref="F1490:F1513"/>
-    <mergeCell ref="F1514:F1537"/>
-    <mergeCell ref="F1538:F1561"/>
-    <mergeCell ref="F1322:F1345"/>
-    <mergeCell ref="F1346:F1369"/>
-    <mergeCell ref="F1370:F1393"/>
-    <mergeCell ref="F1394:F1417"/>
-    <mergeCell ref="F1418:F1441"/>
-    <mergeCell ref="F1202:F1225"/>
-    <mergeCell ref="F1226:F1249"/>
-    <mergeCell ref="F1250:F1273"/>
-    <mergeCell ref="F1274:F1297"/>
-    <mergeCell ref="F1298:F1321"/>
-    <mergeCell ref="F1082:F1105"/>
-    <mergeCell ref="F1106:F1129"/>
-    <mergeCell ref="F1130:F1153"/>
-    <mergeCell ref="F1154:F1177"/>
-    <mergeCell ref="F1178:F1201"/>
-    <mergeCell ref="F962:F985"/>
-    <mergeCell ref="F986:F1009"/>
-    <mergeCell ref="F1010:F1033"/>
-    <mergeCell ref="F1034:F1057"/>
-    <mergeCell ref="F1058:F1081"/>
-    <mergeCell ref="F842:F865"/>
-    <mergeCell ref="F866:F889"/>
-    <mergeCell ref="F890:F913"/>
-    <mergeCell ref="F914:F937"/>
-    <mergeCell ref="F938:F961"/>
-    <mergeCell ref="F722:F745"/>
-    <mergeCell ref="F746:F769"/>
-    <mergeCell ref="F770:F793"/>
-    <mergeCell ref="F794:F817"/>
-    <mergeCell ref="F818:F841"/>
-    <mergeCell ref="F602:F625"/>
-    <mergeCell ref="F626:F649"/>
-    <mergeCell ref="F650:F673"/>
-    <mergeCell ref="F674:F697"/>
-    <mergeCell ref="F698:F721"/>
-    <mergeCell ref="F482:F505"/>
-    <mergeCell ref="F506:F529"/>
-    <mergeCell ref="F530:F553"/>
-    <mergeCell ref="F554:F577"/>
-    <mergeCell ref="F578:F601"/>
-    <mergeCell ref="F362:F385"/>
-    <mergeCell ref="F386:F409"/>
-    <mergeCell ref="F410:F433"/>
-    <mergeCell ref="F434:F457"/>
-    <mergeCell ref="F458:F481"/>
-    <mergeCell ref="F242:F265"/>
-    <mergeCell ref="F266:F289"/>
-    <mergeCell ref="F290:F313"/>
-    <mergeCell ref="F314:F337"/>
-    <mergeCell ref="F338:F361"/>
-    <mergeCell ref="F122:F145"/>
-    <mergeCell ref="F146:F169"/>
-    <mergeCell ref="F170:F193"/>
-    <mergeCell ref="F194:F217"/>
-    <mergeCell ref="F218:F241"/>
-    <mergeCell ref="F2:F25"/>
-    <mergeCell ref="F26:F49"/>
-    <mergeCell ref="F50:F73"/>
-    <mergeCell ref="F74:F97"/>
-    <mergeCell ref="F98:F121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
